--- a/biology/Histoire de la zoologie et de la botanique/Jane_Colden/Jane_Colden.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jane_Colden/Jane_Colden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jane Colden est une botaniste américaine, née le 27 mars 1724 à New York et morte le 10 mars 1766.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Asa Gray dira d’elle en 1843 qu’« elle est la première botaniste de son sexe du pays », ce qui est confirmé par des études contemporaines.
 Son père, Cadwallader Colden, est un médecin formé à l’univerasité d’Édimbourg et qui s'est impliqué dans la vie politique et l’organisation de la ville dès son arrivée à New York. Elle fait ses études auprès de précepteurs et son père lui apprend le nouveau système de classification développé par Carl von Linné.
